--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2364.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2364.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8350082501153218</v>
+        <v>1.010991454124451</v>
       </c>
       <c r="B1">
-        <v>1.59860019700755</v>
+        <v>2.126246690750122</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.929663181304932</v>
       </c>
       <c r="D1">
-        <v>2.068544995662432</v>
+        <v>1.155157685279846</v>
       </c>
       <c r="E1">
-        <v>1.234823428255309</v>
+        <v>1.185857772827148</v>
       </c>
     </row>
   </sheetData>
